--- a/test/excel_differ/src/2.xlsx
+++ b/test/excel_differ/src/2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projects\Python\gameff-toolset\test\table_differ\excel_differ\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projects\Python\gameff-toolset\test\excel_differ\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C0D4C6-650D-401D-BF53-DBA71B13C1EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BAEAC76-4E43-4DBA-9491-E55F5863C926}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23748" yWindow="1116" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -491,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
@@ -609,131 +609,157 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D5">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="E5">
-        <v>888</v>
+        <v>899</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D6">
-        <v>2018</v>
+        <v>1998</v>
       </c>
       <c r="E6">
-        <v>111</v>
+        <v>888</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D7">
-        <v>101</v>
+        <v>2018</v>
       </c>
       <c r="E7">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D8">
-        <v>1998</v>
+        <v>101</v>
       </c>
       <c r="E8">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="H8" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9">
+        <v>1998</v>
+      </c>
+      <c r="E9">
+        <v>115</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>33</v>
+      </c>
+      <c r="H9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>30</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>31</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>2011</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>666</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <v>0</v>
       </c>
-      <c r="G9">
+      <c r="G10">
         <v>34</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H10" t="s">
         <v>32</v>
       </c>
     </row>
